--- a/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C318"/>
+  <dimension ref="A1:C321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5772,6 +5772,57 @@
         </is>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C321"/>
+  <dimension ref="A1:C322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5823,6 +5823,23 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C322"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5840,6 +5840,23 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C323"/>
+  <dimension ref="A1:C324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5857,6 +5857,23 @@
         </is>
       </c>
     </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C324"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5874,6 +5874,23 @@
         </is>
       </c>
     </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:C328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5891,6 +5891,57 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C328"/>
+  <dimension ref="A1:C329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5942,6 +5942,23 @@
         </is>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C329"/>
+  <dimension ref="A1:C330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5959,6 +5959,23 @@
         </is>
       </c>
     </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5976,6 +5976,23 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
+++ b/Data/F022.BUF.STO.PGR3.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C331"/>
+  <dimension ref="A1:C332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5993,6 +5993,23 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>24-12-2021</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>449.346307725356</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
